--- a/MyTeam/Content/templates/BusiReqReportT.xlsx
+++ b/MyTeam/Content/templates/BusiReqReportT.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZhouMeng\Desktop\团队管理系统\MyTeam\MyTeam\Content\templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9720"/>
   </bookViews>
@@ -229,7 +234,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -276,13 +281,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -311,6 +329,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -585,7 +606,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -593,30 +614,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="3" width="20" style="4" customWidth="1"/>
-    <col min="4" max="4" width="31.42578125" style="4" customWidth="1"/>
-    <col min="5" max="6" width="20" style="4" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" style="4" customWidth="1"/>
-    <col min="12" max="12" width="28" style="4" customWidth="1"/>
-    <col min="13" max="13" width="10" style="4" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" style="4" customWidth="1"/>
-    <col min="15" max="15" width="11.85546875" style="4" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="9.1328125" style="5"/>
+    <col min="2" max="4" width="20" style="4" customWidth="1"/>
+    <col min="5" max="5" width="31.3984375" style="4" customWidth="1"/>
+    <col min="6" max="7" width="20" style="4" customWidth="1"/>
+    <col min="8" max="8" width="12.59765625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="15.1328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.3984375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="12.73046875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.86328125" style="4" customWidth="1"/>
+    <col min="13" max="13" width="28" style="4" customWidth="1"/>
+    <col min="14" max="14" width="10" style="4" customWidth="1"/>
+    <col min="15" max="15" width="12.59765625" style="4" customWidth="1"/>
+    <col min="16" max="16" width="11.86328125" style="4" customWidth="1"/>
+    <col min="17" max="16384" width="9.1328125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="8" t="s">
         <v>15</v>
       </c>
@@ -625,10 +647,10 @@
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="10"/>
+      <c r="H1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="7"/>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
@@ -636,58 +658,60 @@
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
     </row>
-    <row r="2" spans="1:15" s="3" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:16" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="G1:O1"/>
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="H1:P1"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MyTeam/Content/templates/BusiReqReportT.xlsx
+++ b/MyTeam/Content/templates/BusiReqReportT.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <r>
       <rPr>
@@ -157,6 +157,10 @@
   </si>
   <si>
     <t>维护需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -300,7 +304,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -332,6 +336,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -616,14 +629,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.1328125" style="5"/>
-    <col min="2" max="4" width="20" style="4" customWidth="1"/>
+    <col min="1" max="1" width="9.1328125" style="13"/>
+    <col min="2" max="2" width="20" style="12" customWidth="1"/>
+    <col min="3" max="4" width="20" style="4" customWidth="1"/>
     <col min="5" max="5" width="31.3984375" style="4" customWidth="1"/>
     <col min="6" max="7" width="20" style="4" customWidth="1"/>
     <col min="8" max="8" width="12.59765625" style="4" customWidth="1"/>
@@ -661,8 +675,10 @@
       <c r="P1" s="7"/>
     </row>
     <row r="2" spans="1:16" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">

--- a/MyTeam/Content/templates/BusiReqReportT.xlsx
+++ b/MyTeam/Content/templates/BusiReqReportT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZhouMeng\Desktop\团队管理系统\MyTeam\MyTeam\Content\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VS Projects\MyTeam\MyTeam\Content\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -326,18 +326,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -345,6 +333,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -629,56 +629,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="B100" sqref="B100"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1328125" style="13"/>
-    <col min="2" max="2" width="20" style="12" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="9"/>
+    <col min="2" max="2" width="20" style="8" customWidth="1"/>
     <col min="3" max="4" width="20" style="4" customWidth="1"/>
-    <col min="5" max="5" width="31.3984375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="31.42578125" style="4" customWidth="1"/>
     <col min="6" max="7" width="20" style="4" customWidth="1"/>
-    <col min="8" max="8" width="12.59765625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="15.1328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.3984375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="12.73046875" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.86328125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.85546875" style="4" customWidth="1"/>
     <col min="13" max="13" width="28" style="4" customWidth="1"/>
     <col min="14" max="14" width="10" style="4" customWidth="1"/>
-    <col min="15" max="15" width="12.59765625" style="4" customWidth="1"/>
-    <col min="16" max="16" width="11.86328125" style="4" customWidth="1"/>
-    <col min="17" max="16384" width="9.1328125" style="5"/>
+    <col min="15" max="15" width="12.5703125" style="4" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" style="4" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:16" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="7" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
     </row>
-    <row r="2" spans="1:16" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:16" s="3" customFormat="1" ht="36" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
